--- a/Code/Results/Cases/Case_8_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.15820410658252</v>
+        <v>20.98941085341395</v>
       </c>
       <c r="C2">
-        <v>15.52591291619755</v>
+        <v>16.87320137391414</v>
       </c>
       <c r="D2">
-        <v>2.795593100263001</v>
+        <v>2.727353880981755</v>
       </c>
       <c r="E2">
-        <v>5.521475785665809</v>
+        <v>6.307700440021248</v>
       </c>
       <c r="F2">
-        <v>44.50428828742776</v>
+        <v>37.31909794617012</v>
       </c>
       <c r="G2">
-        <v>2.143928063429865</v>
+        <v>8.483946392282922</v>
       </c>
       <c r="H2">
-        <v>4.13514902748117</v>
+        <v>3.42924824073887</v>
       </c>
       <c r="I2">
-        <v>4.621324535087475</v>
+        <v>3.890502756087629</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>29.86978942346506</v>
+        <v>24.25210572169918</v>
       </c>
       <c r="L2">
-        <v>5.696445421747071</v>
+        <v>18.94040339938871</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>17.15271913219352</v>
       </c>
       <c r="N2">
-        <v>6.729801750244666</v>
+        <v>5.838828175628718</v>
       </c>
       <c r="O2">
-        <v>13.30951383810421</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.268166178537501</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.39076249465495</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.85970333035946</v>
+        <v>19.64491018584393</v>
       </c>
       <c r="C3">
-        <v>14.44133400569766</v>
+        <v>15.70345015698886</v>
       </c>
       <c r="D3">
-        <v>2.719949492862137</v>
+        <v>2.693430254830708</v>
       </c>
       <c r="E3">
-        <v>5.323116714125229</v>
+        <v>6.189777636701133</v>
       </c>
       <c r="F3">
-        <v>42.90195089105257</v>
+        <v>36.16681777272571</v>
       </c>
       <c r="G3">
-        <v>2.151212012858073</v>
+        <v>9.329575574485689</v>
       </c>
       <c r="H3">
-        <v>4.463545102331347</v>
+        <v>3.686006928073683</v>
       </c>
       <c r="I3">
-        <v>4.901700947375813</v>
+        <v>4.097767266109197</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>29.03717631490694</v>
+        <v>23.79988373323954</v>
       </c>
       <c r="L3">
-        <v>5.593673241883772</v>
+        <v>18.73485866571698</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>16.69397050486921</v>
       </c>
       <c r="N3">
-        <v>6.548131840029741</v>
+        <v>5.769585717008869</v>
       </c>
       <c r="O3">
-        <v>12.72748842336012</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.069477979733834</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.75019396957802</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.02227538915615</v>
+        <v>18.77184351613533</v>
       </c>
       <c r="C4">
-        <v>13.74270254530026</v>
+        <v>14.94559611827188</v>
       </c>
       <c r="D4">
-        <v>2.67218873200438</v>
+        <v>2.672493212030829</v>
       </c>
       <c r="E4">
-        <v>5.198054886936208</v>
+        <v>6.115650756298115</v>
       </c>
       <c r="F4">
-        <v>41.88889150292781</v>
+        <v>35.43531197907178</v>
       </c>
       <c r="G4">
-        <v>2.15581823411811</v>
+        <v>9.865508221398258</v>
       </c>
       <c r="H4">
-        <v>4.671315213695968</v>
+        <v>3.848822519400271</v>
       </c>
       <c r="I4">
-        <v>5.079552734739777</v>
+        <v>4.229886797996764</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>28.51143648040781</v>
+        <v>23.51214110477236</v>
       </c>
       <c r="L4">
-        <v>5.528457081941209</v>
+        <v>18.5958715615681</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.41907424458816</v>
       </c>
       <c r="N4">
-        <v>6.43509014130393</v>
+        <v>5.725643597449904</v>
       </c>
       <c r="O4">
-        <v>12.35944763928938</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.945878041750171</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.34191028438</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67094225928185</v>
+        <v>18.40394653061098</v>
       </c>
       <c r="C5">
-        <v>13.45629512445177</v>
+        <v>14.63211484488515</v>
       </c>
       <c r="D5">
-        <v>2.646812798811725</v>
+        <v>2.662787349604441</v>
       </c>
       <c r="E5">
-        <v>5.145871426387701</v>
+        <v>6.084805690625188</v>
       </c>
       <c r="F5">
-        <v>41.4355033015796</v>
+        <v>35.1039968061649</v>
       </c>
       <c r="G5">
-        <v>2.157744933717738</v>
+        <v>10.08981040972457</v>
       </c>
       <c r="H5">
-        <v>4.758256109273292</v>
+        <v>3.91699545438734</v>
       </c>
       <c r="I5">
-        <v>5.156008366594102</v>
+        <v>4.287836883527643</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28.26840920691522</v>
+        <v>23.37266521087246</v>
       </c>
       <c r="L5">
-        <v>5.500568053455862</v>
+        <v>18.51974925195876</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.29543600221207</v>
       </c>
       <c r="N5">
-        <v>6.390266566985329</v>
+        <v>5.706993815122383</v>
       </c>
       <c r="O5">
-        <v>12.20839467023831</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.896452075713734</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.17311052932218</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.61185920847046</v>
+        <v>18.34189997315279</v>
       </c>
       <c r="C6">
-        <v>13.41624971937588</v>
+        <v>14.58602295036325</v>
       </c>
       <c r="D6">
-        <v>2.635750531924506</v>
+        <v>2.659792116566869</v>
       </c>
       <c r="E6">
-        <v>5.13669901538231</v>
+        <v>6.079420191877085</v>
       </c>
       <c r="F6">
-        <v>41.31867324908787</v>
+        <v>35.01509056090541</v>
       </c>
       <c r="G6">
-        <v>2.158085231246528</v>
+        <v>10.12928300213604</v>
       </c>
       <c r="H6">
-        <v>4.77362765070609</v>
+        <v>3.929005462379882</v>
       </c>
       <c r="I6">
-        <v>5.171970104014218</v>
+        <v>4.301201381914434</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.19689305367081</v>
+        <v>23.32523307576368</v>
       </c>
       <c r="L6">
-        <v>5.494971040370349</v>
+        <v>18.48707210912707</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.25842062326727</v>
       </c>
       <c r="N6">
-        <v>6.384743485171559</v>
+        <v>5.703417680880961</v>
       </c>
       <c r="O6">
-        <v>12.18493011651853</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.889812781666639</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.14630712904184</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.01713191637334</v>
+        <v>18.76700896693773</v>
       </c>
       <c r="C7">
-        <v>13.76015723389718</v>
+        <v>14.90306175948746</v>
       </c>
       <c r="D7">
-        <v>2.653340548573643</v>
+        <v>2.658430600349619</v>
       </c>
       <c r="E7">
-        <v>5.196120797915484</v>
+        <v>6.110362466401598</v>
       </c>
       <c r="F7">
-        <v>41.77180757983243</v>
+        <v>35.18041141212064</v>
       </c>
       <c r="G7">
-        <v>2.15589345935667</v>
+        <v>9.924348136276118</v>
       </c>
       <c r="H7">
-        <v>4.674749257921175</v>
+        <v>3.854589055221402</v>
       </c>
       <c r="I7">
-        <v>5.089041968178934</v>
+        <v>4.243350868876007</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>28.42438597541207</v>
+        <v>23.34468066892872</v>
       </c>
       <c r="L7">
-        <v>5.525566309957846</v>
+        <v>18.45975329224987</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.30211077779321</v>
       </c>
       <c r="N7">
-        <v>6.439735401642416</v>
+        <v>5.721898627937718</v>
       </c>
       <c r="O7">
-        <v>12.36214278261506</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.947921960203329</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.3434462063693</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.7181295598181</v>
+        <v>20.53658847815337</v>
       </c>
       <c r="C8">
-        <v>15.18439265593441</v>
+        <v>16.32814589370207</v>
       </c>
       <c r="D8">
-        <v>2.746051667869692</v>
+        <v>2.679205692114067</v>
       </c>
       <c r="E8">
-        <v>5.452158190840612</v>
+        <v>6.252650432897218</v>
       </c>
       <c r="F8">
-        <v>43.81753237304375</v>
+        <v>36.30497165251217</v>
       </c>
       <c r="G8">
-        <v>2.146475784823049</v>
+        <v>9.0028215536391</v>
       </c>
       <c r="H8">
-        <v>4.250044424274249</v>
+        <v>3.529063915565493</v>
       </c>
       <c r="I8">
-        <v>4.727696006036917</v>
+        <v>3.98289075731187</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.47861784280111</v>
+        <v>23.6937381167301</v>
       </c>
       <c r="L8">
-        <v>5.658244108827412</v>
+        <v>18.55116801063475</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.70161021862955</v>
       </c>
       <c r="N8">
-        <v>6.674221905150195</v>
+        <v>5.806631451634411</v>
       </c>
       <c r="O8">
-        <v>13.11696761750314</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.200407407945791</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.17735310565457</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.73235947513794</v>
+        <v>23.62764779899359</v>
       </c>
       <c r="C9">
-        <v>17.68712451519527</v>
+        <v>18.98767934832079</v>
       </c>
       <c r="D9">
-        <v>2.949035571915016</v>
+        <v>2.758888281511439</v>
       </c>
       <c r="E9">
-        <v>5.931682590013738</v>
+        <v>6.534529417641447</v>
       </c>
       <c r="F9">
-        <v>47.76808890808207</v>
+        <v>39.05020349815907</v>
       </c>
       <c r="G9">
-        <v>2.1289363991323</v>
+        <v>7.054007206341127</v>
       </c>
       <c r="H9">
-        <v>3.45988273596873</v>
+        <v>2.916250728324428</v>
       </c>
       <c r="I9">
-        <v>4.048574318234145</v>
+        <v>3.4832284254598</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>31.56670152379058</v>
+        <v>24.77393859691804</v>
       </c>
       <c r="L9">
-        <v>5.906664943752174</v>
+        <v>19.0153864415412</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.86681974467824</v>
       </c>
       <c r="N9">
-        <v>7.111837072471702</v>
+        <v>5.971893229803666</v>
       </c>
       <c r="O9">
-        <v>14.49870215539664</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.679238956549575</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.68183449247848</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.75845717411456</v>
+        <v>25.68148607128422</v>
       </c>
       <c r="C10">
-        <v>19.38075186361667</v>
+        <v>20.49737928272627</v>
       </c>
       <c r="D10">
-        <v>3.162143909081903</v>
+        <v>2.779049139535346</v>
       </c>
       <c r="E10">
-        <v>6.290980471660815</v>
+        <v>6.729933420331635</v>
       </c>
       <c r="F10">
-        <v>49.97898032504428</v>
+        <v>39.75087530872199</v>
       </c>
       <c r="G10">
-        <v>2.116882090227565</v>
+        <v>6.689914375037313</v>
       </c>
       <c r="H10">
-        <v>2.936985606687881</v>
+        <v>2.534195273941835</v>
       </c>
       <c r="I10">
-        <v>3.590159084130295</v>
+        <v>3.166630727688027</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>32.6494724958049</v>
+        <v>24.74547119913555</v>
       </c>
       <c r="L10">
-        <v>6.068192451251784</v>
+        <v>18.72007682307826</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.14909086392016</v>
       </c>
       <c r="N10">
-        <v>7.365601890227187</v>
+        <v>6.077961996861577</v>
       </c>
       <c r="O10">
-        <v>15.41490852798239</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.945350919846253</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.66007387094549</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.73117061055721</v>
+        <v>26.66839844999213</v>
       </c>
       <c r="C11">
-        <v>20.13549555608532</v>
+        <v>20.60276136448912</v>
       </c>
       <c r="D11">
-        <v>3.10233033135446</v>
+        <v>2.820046749771833</v>
       </c>
       <c r="E11">
-        <v>6.691447035838919</v>
+        <v>6.978448350616402</v>
       </c>
       <c r="F11">
-        <v>46.72967567128784</v>
+        <v>35.54103579347709</v>
       </c>
       <c r="G11">
-        <v>2.113715400859921</v>
+        <v>9.488935209956534</v>
       </c>
       <c r="H11">
-        <v>3.584401298525488</v>
+        <v>3.309523819654888</v>
       </c>
       <c r="I11">
-        <v>3.492699357464958</v>
+        <v>3.12642590962562</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>30.18059913041922</v>
+        <v>21.86505695319656</v>
       </c>
       <c r="L11">
-        <v>6.102686359818164</v>
+        <v>16.47336272088456</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.06586681338785</v>
       </c>
       <c r="N11">
-        <v>6.97342530886452</v>
+        <v>6.184928136619906</v>
       </c>
       <c r="O11">
-        <v>15.48429574093485</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.479919937126919</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.7044402693151</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.13907915236124</v>
+        <v>27.08483165265279</v>
       </c>
       <c r="C12">
-        <v>20.40311165657283</v>
+        <v>20.5131386624149</v>
       </c>
       <c r="D12">
-        <v>3.031034493005082</v>
+        <v>2.88837756240154</v>
       </c>
       <c r="E12">
-        <v>7.035979361600626</v>
+        <v>7.222756848970055</v>
       </c>
       <c r="F12">
-        <v>43.6513461738468</v>
+        <v>32.45232413343361</v>
       </c>
       <c r="G12">
-        <v>2.113309647322163</v>
+        <v>11.12700004014616</v>
       </c>
       <c r="H12">
-        <v>4.74144158317163</v>
+        <v>4.539226750311297</v>
       </c>
       <c r="I12">
-        <v>3.482793350647353</v>
+        <v>3.124165259962533</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.99673429197259</v>
+        <v>19.91545695490442</v>
       </c>
       <c r="L12">
-        <v>6.182737870026179</v>
+        <v>15.02169296606882</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.58376531681728</v>
       </c>
       <c r="N12">
-        <v>6.592840885852636</v>
+        <v>6.330988609039679</v>
       </c>
       <c r="O12">
-        <v>15.33939314295495</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.041531251799885</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.52937484688046</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.14986471103347</v>
+        <v>27.1009745420792</v>
       </c>
       <c r="C13">
-        <v>20.34473996973215</v>
+        <v>20.39079339756594</v>
       </c>
       <c r="D13">
-        <v>2.924025072163555</v>
+        <v>2.926528394575655</v>
       </c>
       <c r="E13">
-        <v>7.350500942573938</v>
+        <v>7.5088828240284</v>
       </c>
       <c r="F13">
-        <v>40.31352783018146</v>
+        <v>30.17017884483235</v>
       </c>
       <c r="G13">
-        <v>2.115081797289213</v>
+        <v>10.83395124749942</v>
       </c>
       <c r="H13">
-        <v>6.06039932305255</v>
+        <v>5.884186980873467</v>
       </c>
       <c r="I13">
-        <v>3.55437519820175</v>
+        <v>3.1661037046481</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.76530401489803</v>
+        <v>18.61110593339319</v>
       </c>
       <c r="L13">
-        <v>6.294136493102072</v>
+        <v>14.09507124209962</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.53598616566211</v>
       </c>
       <c r="N13">
-        <v>6.204431133502429</v>
+        <v>6.501931167603317</v>
       </c>
       <c r="O13">
-        <v>15.02354690827206</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.604251480350093</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.17679529643343</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.97857085714921</v>
+        <v>26.93157040878956</v>
       </c>
       <c r="C14">
-        <v>20.161430851137</v>
+        <v>20.28830033125607</v>
       </c>
       <c r="D14">
-        <v>2.830054382386187</v>
+        <v>2.93566239741002</v>
       </c>
       <c r="E14">
-        <v>7.564152165577738</v>
+        <v>7.744772792556723</v>
       </c>
       <c r="F14">
-        <v>37.81685941439162</v>
+        <v>28.8731400143019</v>
       </c>
       <c r="G14">
-        <v>2.117301380550916</v>
+        <v>9.812683989826846</v>
       </c>
       <c r="H14">
-        <v>7.030629992699958</v>
+        <v>6.859407280760195</v>
       </c>
       <c r="I14">
-        <v>3.643468798249579</v>
+        <v>3.219516583859809</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.16995938726231</v>
+        <v>17.94326618890572</v>
       </c>
       <c r="L14">
-        <v>6.394001837365122</v>
+        <v>13.63894669680304</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.97161394181818</v>
       </c>
       <c r="N14">
-        <v>5.934056784837754</v>
+        <v>6.634750125637837</v>
       </c>
       <c r="O14">
-        <v>14.7226753783749</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.303001805369835</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.84599961044622</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.85141011353058</v>
+        <v>26.80385236649231</v>
       </c>
       <c r="C15">
-        <v>20.05280419666659</v>
+        <v>20.25328183676317</v>
       </c>
       <c r="D15">
-        <v>2.794406485810262</v>
+        <v>2.932824690534096</v>
       </c>
       <c r="E15">
-        <v>7.600291259489195</v>
+        <v>7.80547477313191</v>
       </c>
       <c r="F15">
-        <v>37.11781709185261</v>
+        <v>28.6642094437321</v>
       </c>
       <c r="G15">
-        <v>2.118346738505855</v>
+        <v>9.247414817074647</v>
       </c>
       <c r="H15">
-        <v>7.264688364576497</v>
+        <v>7.090071183017682</v>
       </c>
       <c r="I15">
-        <v>3.687526892946068</v>
+        <v>3.248112486824216</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.74542977868341</v>
+        <v>17.8615124283038</v>
       </c>
       <c r="L15">
-        <v>6.414741578334413</v>
+        <v>13.59070525346247</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.88979757493588</v>
       </c>
       <c r="N15">
-        <v>5.86667778612968</v>
+        <v>6.66288103065702</v>
       </c>
       <c r="O15">
-        <v>14.61464023178723</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.229338229440782</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.72846462567503</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.0263992145957</v>
+        <v>25.96755742691799</v>
       </c>
       <c r="C16">
-        <v>19.38081396109118</v>
+        <v>20.04093087858476</v>
       </c>
       <c r="D16">
-        <v>2.698976621112541</v>
+        <v>2.907347686867214</v>
       </c>
       <c r="E16">
-        <v>7.39685384054259</v>
+        <v>7.760958562826343</v>
       </c>
       <c r="F16">
-        <v>36.65093379434872</v>
+        <v>29.78814140936627</v>
       </c>
       <c r="G16">
-        <v>2.123152658482018</v>
+        <v>7.099163314634888</v>
       </c>
       <c r="H16">
-        <v>7.142777285879323</v>
+        <v>6.9217483692217</v>
       </c>
       <c r="I16">
-        <v>3.873603006044056</v>
+        <v>3.363634822998476</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.63424593069992</v>
+        <v>18.68531194980564</v>
       </c>
       <c r="L16">
-        <v>6.320264856755735</v>
+        <v>14.24079861944353</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.45579447208436</v>
       </c>
       <c r="N16">
-        <v>5.832697572905548</v>
+        <v>6.576872078347684</v>
       </c>
       <c r="O16">
-        <v>14.28511407649418</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.208286848672675</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.38039709495037</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.47458118165246</v>
+        <v>25.40541488991092</v>
       </c>
       <c r="C17">
-        <v>18.9568425819976</v>
+        <v>19.86435333580575</v>
       </c>
       <c r="D17">
-        <v>2.675525050769584</v>
+        <v>2.895247991887963</v>
       </c>
       <c r="E17">
-        <v>7.114968916598367</v>
+        <v>7.566996655820453</v>
       </c>
       <c r="F17">
-        <v>37.64758130619541</v>
+        <v>31.19308347901642</v>
       </c>
       <c r="G17">
-        <v>2.125677360806291</v>
+        <v>6.658834037558408</v>
       </c>
       <c r="H17">
-        <v>6.51948319848761</v>
+        <v>6.251417610219293</v>
       </c>
       <c r="I17">
-        <v>3.970134433201888</v>
+        <v>3.426795790130149</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.39645701145618</v>
+        <v>19.60909929177658</v>
       </c>
       <c r="L17">
-        <v>6.187143389788258</v>
+        <v>14.95973332955084</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.12168611245425</v>
       </c>
       <c r="N17">
-        <v>5.949559098215717</v>
+        <v>6.438288388988567</v>
       </c>
       <c r="O17">
-        <v>14.19522872694477</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.350474720359893</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.29207206092642</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10513763989776</v>
+        <v>25.02726747535159</v>
       </c>
       <c r="C18">
-        <v>18.69214468456437</v>
+        <v>19.78312795667854</v>
       </c>
       <c r="D18">
-        <v>2.726338993766538</v>
+        <v>2.876781554314678</v>
       </c>
       <c r="E18">
-        <v>6.763500334737148</v>
+        <v>7.268187741935331</v>
       </c>
       <c r="F18">
-        <v>40.11204002851931</v>
+        <v>33.35413916242863</v>
       </c>
       <c r="G18">
-        <v>2.126385836687067</v>
+        <v>6.554983956877887</v>
       </c>
       <c r="H18">
-        <v>5.448138202433963</v>
+        <v>5.117970585009581</v>
       </c>
       <c r="I18">
-        <v>3.987485467831165</v>
+        <v>3.434567743274033</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>26.09024406158809</v>
+        <v>20.95967312807782</v>
       </c>
       <c r="L18">
-        <v>6.040725711428148</v>
+        <v>15.99261029095469</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15.12864775025291</v>
       </c>
       <c r="N18">
-        <v>6.218485578854344</v>
+        <v>6.265416706069699</v>
       </c>
       <c r="O18">
-        <v>14.29782800052185</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.661978399637176</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.41699361815618</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.91279789380905</v>
+        <v>24.82917418369411</v>
       </c>
       <c r="C19">
-        <v>18.61067821411607</v>
+        <v>19.85107602685544</v>
       </c>
       <c r="D19">
-        <v>2.821196594613261</v>
+        <v>2.848163807194032</v>
       </c>
       <c r="E19">
-        <v>6.432529985539424</v>
+        <v>6.964224505545371</v>
       </c>
       <c r="F19">
-        <v>43.40718517884808</v>
+        <v>35.94152870672252</v>
       </c>
       <c r="G19">
-        <v>2.125515018780028</v>
+        <v>6.434381772417074</v>
       </c>
       <c r="H19">
-        <v>4.251196873259798</v>
+        <v>3.840142081256408</v>
       </c>
       <c r="I19">
-        <v>3.951803442174613</v>
+        <v>3.413071112848756</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>28.32258696185004</v>
+        <v>22.55844707134958</v>
       </c>
       <c r="L19">
-        <v>5.95201155661992</v>
+        <v>17.20357692539505</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.33752994111559</v>
       </c>
       <c r="N19">
-        <v>6.61258562175279</v>
+        <v>6.122454289969992</v>
       </c>
       <c r="O19">
-        <v>14.54926209687871</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.109613095843994</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.7049181689078</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.23824407120237</v>
+        <v>25.15554768019507</v>
       </c>
       <c r="C20">
-        <v>18.995320100955</v>
+        <v>20.30597818589501</v>
       </c>
       <c r="D20">
-        <v>3.061415364442858</v>
+        <v>2.790726730591662</v>
       </c>
       <c r="E20">
-        <v>6.19478939815689</v>
+        <v>6.693068405735379</v>
       </c>
       <c r="F20">
-        <v>49.09087702568839</v>
+        <v>39.80489083604405</v>
       </c>
       <c r="G20">
-        <v>2.120165760242078</v>
+        <v>6.183385210379945</v>
       </c>
       <c r="H20">
-        <v>3.079285036016535</v>
+        <v>2.627204699376096</v>
       </c>
       <c r="I20">
-        <v>3.73852536720335</v>
+        <v>3.273439306996072</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>32.12441740401894</v>
+        <v>24.88215546499312</v>
       </c>
       <c r="L20">
-        <v>6.019078011881964</v>
+        <v>18.89404014656711</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.17180829844832</v>
       </c>
       <c r="N20">
-        <v>7.311343474468966</v>
+        <v>6.054542201326931</v>
       </c>
       <c r="O20">
-        <v>15.18840635761407</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.890228072745077</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.4172680382923</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.71187617201772</v>
+        <v>26.64209035526415</v>
       </c>
       <c r="C21">
-        <v>20.23553973230292</v>
+        <v>20.64734803728221</v>
       </c>
       <c r="D21">
-        <v>3.275067626754598</v>
+        <v>2.754805974618816</v>
       </c>
       <c r="E21">
-        <v>6.435866698459355</v>
+        <v>6.749162496817676</v>
       </c>
       <c r="F21">
-        <v>51.54344125765048</v>
+        <v>38.42306450557919</v>
       </c>
       <c r="G21">
-        <v>2.110624099470459</v>
+        <v>10.8122624751812</v>
       </c>
       <c r="H21">
-        <v>2.636317084160705</v>
+        <v>2.345759981734061</v>
       </c>
       <c r="I21">
-        <v>3.372116269145097</v>
+        <v>3.065173041251257</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.49816283272465</v>
+        <v>23.63101868752634</v>
       </c>
       <c r="L21">
-        <v>6.159621850448254</v>
+        <v>17.76253599902211</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.44781371638346</v>
       </c>
       <c r="N21">
-        <v>7.593022720168941</v>
+        <v>6.099711340947048</v>
       </c>
       <c r="O21">
-        <v>15.92770053427598</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.166102901977991</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.19882066688789</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.64598486309298</v>
+        <v>27.58255014035884</v>
       </c>
       <c r="C22">
-        <v>21.00157327034089</v>
+        <v>20.79262376408566</v>
       </c>
       <c r="D22">
-        <v>3.415481364008956</v>
+        <v>2.839040724663137</v>
       </c>
       <c r="E22">
-        <v>6.603725324233385</v>
+        <v>6.807023446471591</v>
       </c>
       <c r="F22">
-        <v>52.98249300290448</v>
+        <v>37.2812639901622</v>
       </c>
       <c r="G22">
-        <v>2.104540282705375</v>
+        <v>15.32457969708186</v>
       </c>
       <c r="H22">
-        <v>2.362902687035775</v>
+        <v>2.175537375783115</v>
       </c>
       <c r="I22">
-        <v>3.129509109469267</v>
+        <v>2.920439277624414</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.29984103635642</v>
+        <v>22.67795186123043</v>
       </c>
       <c r="L22">
-        <v>6.247363712811334</v>
+        <v>16.94439992841682</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.85963974088354</v>
       </c>
       <c r="N22">
-        <v>7.738201568176286</v>
+        <v>6.131786545462265</v>
       </c>
       <c r="O22">
-        <v>16.37409893739381</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.302763446621212</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.6649817715628</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.15176123401372</v>
+        <v>27.08315022978564</v>
       </c>
       <c r="C23">
-        <v>20.57784231501902</v>
+        <v>20.80724570484253</v>
       </c>
       <c r="D23">
-        <v>3.354781032363016</v>
+        <v>2.773245796111242</v>
       </c>
       <c r="E23">
-        <v>6.515586156459444</v>
+        <v>6.781515300140478</v>
       </c>
       <c r="F23">
-        <v>52.32462881589145</v>
+        <v>38.31728574712733</v>
       </c>
       <c r="G23">
-        <v>2.10772870100782</v>
+        <v>12.1016863998172</v>
       </c>
       <c r="H23">
-        <v>2.506124718107942</v>
+        <v>2.259090415952706</v>
       </c>
       <c r="I23">
-        <v>3.246821877577583</v>
+        <v>2.978779844022462</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.95774556261468</v>
+        <v>23.4665743201708</v>
       </c>
       <c r="L23">
-        <v>6.20316259817211</v>
+        <v>17.5836179918622</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.39208434191511</v>
       </c>
       <c r="N23">
-        <v>7.65556417600249</v>
+        <v>6.119048241149641</v>
       </c>
       <c r="O23">
-        <v>16.13290542983285</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.22924723342971</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.41574825997162</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.20559774777063</v>
+        <v>25.12209858132133</v>
       </c>
       <c r="C24">
-        <v>18.94661812534117</v>
+        <v>20.28270630947818</v>
       </c>
       <c r="D24">
-        <v>3.094661364152978</v>
+        <v>2.792596900647347</v>
       </c>
       <c r="E24">
-        <v>6.176479914330558</v>
+        <v>6.676920080092372</v>
       </c>
       <c r="F24">
-        <v>49.60212938482837</v>
+        <v>40.23031377226919</v>
       </c>
       <c r="G24">
-        <v>2.120032211370628</v>
+        <v>6.147232822455299</v>
       </c>
       <c r="H24">
-        <v>3.059267299795147</v>
+        <v>2.608522712705927</v>
       </c>
       <c r="I24">
-        <v>3.718137026781408</v>
+        <v>3.250677271239238</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>32.5000518098277</v>
+        <v>25.17529243916407</v>
       </c>
       <c r="L24">
-        <v>6.029543215477585</v>
+        <v>19.11793766516882</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.39071772798868</v>
       </c>
       <c r="N24">
-        <v>7.346554550729116</v>
+        <v>6.053474537691411</v>
       </c>
       <c r="O24">
-        <v>15.20052257892589</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.932711968012127</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.43415633180062</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95059565470538</v>
+        <v>22.8300453519665</v>
       </c>
       <c r="C25">
-        <v>17.06832976246514</v>
+        <v>18.3938620062088</v>
       </c>
       <c r="D25">
-        <v>2.864405412104076</v>
+        <v>2.744245889818628</v>
       </c>
       <c r="E25">
-        <v>5.802319670144299</v>
+        <v>6.464439406969184</v>
       </c>
       <c r="F25">
-        <v>46.54744899499558</v>
+        <v>38.38951614672605</v>
       </c>
       <c r="G25">
-        <v>2.133663400695398</v>
+        <v>7.443515937966048</v>
       </c>
       <c r="H25">
-        <v>3.672797160191096</v>
+        <v>3.076366800557198</v>
       </c>
       <c r="I25">
-        <v>4.243422534026141</v>
+        <v>3.628645156561568</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>30.87640578963569</v>
+        <v>24.51459296371062</v>
       </c>
       <c r="L25">
-        <v>5.836929321533331</v>
+        <v>18.91915098133416</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.56574464797745</v>
       </c>
       <c r="N25">
-        <v>7.003840870419528</v>
+        <v>5.929491531995994</v>
       </c>
       <c r="O25">
-        <v>14.14262664211891</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.560919044548864</v>
       </c>
       <c r="Q25">
+        <v>14.29510127188075</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
